--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_289.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_289.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['D', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5'], ['D', 'G', 'C'], ['D', 'G', 'D']]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(24.401147, 28.461467), (28.800769, 40.713165), (8.158789, 22.58999)]</t>
+          <t>[['C', 'C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.391, 24.332), (89.739, 104.707), (0.279, 16.531)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:52.120000', '0:00:55.480000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:23.670000', '0:00:26.740000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2321428571428572</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4178571428571429</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E:7'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_8</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1199186991869919</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'F:7/D#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['D/5', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(92.241, 98.929), (19.435, 32.669)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(63.74, 69.06), (17.34, 24.4)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:05.544000', '0:00:08.638000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:50.046698', '0:00:55.352457')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05137880986937591</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G/5', 'D']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2767857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1194879089615932</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2476190476190476</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2843137254901961</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['B', 'B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38), (18.48, 21.42)]</t>
+          <t>[['E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(24.18, 30.02), (250.3, 255.38)]</t>
+          <t>[('0:00:55.629773', '0:01:04.604285')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2283298097251586</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:min', 'F', 'Bb:min', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.996837, 30.067314)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(78.76, 81.4)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2642857142857143</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.0, 61.06)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09107142857142857</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.102, 15.808)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.230853, 14.849092)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.0, 11.36), (78.1, 86.06)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.34, 8.84), (71.8, 79.08)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.06, 10.78)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1084249084249084</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.1, 13.5)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.3, 5.85)]</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1822250639386189</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E/5', 'B', 'E', 'B:7', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.327006, 65.956303)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.92, 57.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
